--- a/data/auxillary/average percapita consumption_nk2.xlsx
+++ b/data/auxillary/average percapita consumption_nk2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,26 +878,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19.69032258064516</v>
+        <v>27.75764705882353</v>
       </c>
       <c r="E12" t="n">
-        <v>5.507870967741935</v>
+        <v>5.451999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1.967225806451613</v>
+        <v>2.184117647058824</v>
       </c>
       <c r="G12" t="n">
-        <v>11.30116129032258</v>
+        <v>17.61117647058824</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5935483870968</v>
+        <v>131.9870588235293</v>
       </c>
       <c r="I12" t="n">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="J12" t="n">
         <v>2174.952198852772</v>
@@ -916,26 +916,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15.23235668789809</v>
+        <v>19.69032258064516</v>
       </c>
       <c r="E13" t="n">
-        <v>2.084582278481014</v>
+        <v>5.507870967741935</v>
       </c>
       <c r="F13" t="n">
-        <v>2.523987341772151</v>
+        <v>1.967225806451613</v>
       </c>
       <c r="G13" t="n">
-        <v>7.116607594936709</v>
+        <v>11.30116129032258</v>
       </c>
       <c r="H13" t="n">
-        <v>64.30784810126583</v>
+        <v>104.5935483870968</v>
       </c>
       <c r="I13" t="n">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="J13" t="n">
         <v>2174.952198852772</v>
@@ -949,34 +949,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>159.946875</v>
+        <v>15.23235668789809</v>
       </c>
       <c r="E14" t="n">
-        <v>71.97437500000001</v>
+        <v>2.084582278481014</v>
       </c>
       <c r="F14" t="n">
-        <v>58.14187499999998</v>
+        <v>2.523987341772151</v>
       </c>
       <c r="G14" t="n">
-        <v>29.15</v>
+        <v>7.116607594936709</v>
       </c>
       <c r="H14" t="n">
-        <v>998.2156249999998</v>
+        <v>64.30784810126583</v>
       </c>
       <c r="I14" t="n">
-        <v>495</v>
+        <v>126</v>
       </c>
       <c r="J14" t="n">
-        <v>2079.349904397705</v>
+        <v>2174.952198852772</v>
       </c>
     </row>
     <row r="15">
@@ -992,26 +992,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.873333333333334</v>
+        <v>159.946875</v>
       </c>
       <c r="E15" t="n">
-        <v>1.852666666666666</v>
+        <v>71.97437500000001</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7584</v>
+        <v>58.14187499999998</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2697333333333334</v>
+        <v>29.15</v>
       </c>
       <c r="H15" t="n">
-        <v>24.78933333333334</v>
+        <v>998.2156249999998</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>495</v>
       </c>
       <c r="J15" t="n">
         <v>2079.349904397705</v>
@@ -1030,26 +1030,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21.95910447761194</v>
+        <v>3.873333333333334</v>
       </c>
       <c r="E16" t="n">
-        <v>20.98973529411764</v>
+        <v>1.852666666666666</v>
       </c>
       <c r="F16" t="n">
-        <v>0.37975</v>
+        <v>1.7584</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6965882352941177</v>
+        <v>0.2697333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>193.3077941176471</v>
+        <v>24.78933333333334</v>
       </c>
       <c r="I16" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
         <v>2079.349904397705</v>
@@ -1068,26 +1068,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.33214285714286</v>
+        <v>21.95910447761194</v>
       </c>
       <c r="E17" t="n">
-        <v>3.057797356828194</v>
+        <v>20.98973529411764</v>
       </c>
       <c r="F17" t="n">
-        <v>6.251982378854624</v>
+        <v>0.37975</v>
       </c>
       <c r="G17" t="n">
-        <v>1.812511013215859</v>
+        <v>0.6965882352941177</v>
       </c>
       <c r="H17" t="n">
-        <v>60.04052863436124</v>
+        <v>193.3077941176471</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
         <v>2079.349904397705</v>
@@ -1106,26 +1106,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81.45635359116022</v>
+        <v>11.33214285714286</v>
       </c>
       <c r="E18" t="n">
-        <v>20.74803867403315</v>
+        <v>3.057797356828194</v>
       </c>
       <c r="F18" t="n">
-        <v>9.459447513812155</v>
+        <v>6.251982378854624</v>
       </c>
       <c r="G18" t="n">
-        <v>40.7621546961326</v>
+        <v>1.812511013215859</v>
       </c>
       <c r="H18" t="n">
-        <v>408.2444751381216</v>
+        <v>60.04052863436124</v>
       </c>
       <c r="I18" t="n">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="J18" t="n">
         <v>2079.349904397705</v>
@@ -1144,26 +1144,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>153.5199742268041</v>
+        <v>81.45635359116022</v>
       </c>
       <c r="E19" t="n">
-        <v>19.67139175257732</v>
+        <v>20.74803867403315</v>
       </c>
       <c r="F19" t="n">
-        <v>16.97613402061856</v>
+        <v>9.459447513812155</v>
       </c>
       <c r="G19" t="n">
-        <v>106.3291365979381</v>
+        <v>40.7621546961326</v>
       </c>
       <c r="H19" t="n">
-        <v>691.5297680412372</v>
+        <v>408.2444751381216</v>
       </c>
       <c r="I19" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="J19" t="n">
         <v>2079.349904397705</v>
@@ -1182,26 +1182,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>153.5199742268041</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>19.67139175257732</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>16.97613402061856</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>106.3291365979381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>691.5297680412372</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="J20" t="n">
         <v>2079.349904397705</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1296,26 +1296,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29.89755102040817</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.05657142857142</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>15.90061224489796</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.621142857142857</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>174.3118367346939</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>2079.349904397705</v>
@@ -1334,26 +1334,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22.85483870967742</v>
+        <v>29.89755102040817</v>
       </c>
       <c r="E24" t="n">
-        <v>6.393064516129032</v>
+        <v>11.05657142857142</v>
       </c>
       <c r="F24" t="n">
-        <v>2.283387096774193</v>
+        <v>15.90061224489796</v>
       </c>
       <c r="G24" t="n">
-        <v>13.11741935483871</v>
+        <v>2.621142857142857</v>
       </c>
       <c r="H24" t="n">
-        <v>121.4032258064516</v>
+        <v>174.3118367346939</v>
       </c>
       <c r="I24" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J24" t="n">
         <v>2079.349904397705</v>
@@ -1372,26 +1372,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14.99057324840764</v>
+        <v>22.73764705882353</v>
       </c>
       <c r="E25" t="n">
-        <v>2.051493670886077</v>
+        <v>4.465999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>2.483924050632911</v>
+        <v>1.789117647058824</v>
       </c>
       <c r="G25" t="n">
-        <v>7.003645569620253</v>
+        <v>14.42617647058824</v>
       </c>
       <c r="H25" t="n">
-        <v>63.28708860759495</v>
+        <v>108.1170588235294</v>
       </c>
       <c r="I25" t="n">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="J25" t="n">
         <v>2079.349904397705</v>
@@ -1405,34 +1405,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>131.511875</v>
+        <v>22.85483870967742</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17893055555556</v>
+        <v>6.393064516129032</v>
       </c>
       <c r="F26" t="n">
-        <v>47.80554166666665</v>
+        <v>2.283387096774193</v>
       </c>
       <c r="G26" t="n">
-        <v>23.96777777777778</v>
+        <v>13.11741935483871</v>
       </c>
       <c r="H26" t="n">
-        <v>820.7550694444444</v>
+        <v>121.4032258064516</v>
       </c>
       <c r="I26" t="n">
-        <v>407</v>
+        <v>65</v>
       </c>
       <c r="J26" t="n">
-        <v>1959.847036328872</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="27">
@@ -1443,34 +1443,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.426666666666668</v>
+        <v>14.99057324840764</v>
       </c>
       <c r="E27" t="n">
-        <v>2.117333333333333</v>
+        <v>2.051493670886077</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0096</v>
+        <v>2.483924050632911</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3082666666666667</v>
+        <v>7.003645569620253</v>
       </c>
       <c r="H27" t="n">
-        <v>28.33066666666667</v>
+        <v>63.28708860759495</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J27" t="n">
-        <v>1959.847036328872</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="28">
@@ -1486,26 +1486,26 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21.95910447761194</v>
+        <v>131.511875</v>
       </c>
       <c r="E28" t="n">
-        <v>20.98973529411764</v>
+        <v>59.17893055555556</v>
       </c>
       <c r="F28" t="n">
-        <v>0.37975</v>
+        <v>47.80554166666665</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6965882352941177</v>
+        <v>23.96777777777778</v>
       </c>
       <c r="H28" t="n">
-        <v>193.3077941176471</v>
+        <v>820.7550694444444</v>
       </c>
       <c r="I28" t="n">
-        <v>31</v>
+        <v>407</v>
       </c>
       <c r="J28" t="n">
         <v>1959.847036328872</v>
@@ -1524,26 +1524,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15.58169642857143</v>
+        <v>4.426666666666668</v>
       </c>
       <c r="E29" t="n">
-        <v>4.204471365638766</v>
+        <v>2.117333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>8.596475770925109</v>
+        <v>2.0096</v>
       </c>
       <c r="G29" t="n">
-        <v>2.492202643171806</v>
+        <v>0.3082666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>82.55572687224671</v>
+        <v>28.33066666666667</v>
       </c>
       <c r="I29" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J29" t="n">
         <v>1959.847036328872</v>
@@ -1562,26 +1562,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>87.41657458563536</v>
+        <v>21.95910447761194</v>
       </c>
       <c r="E30" t="n">
-        <v>22.26618784530386</v>
+        <v>20.98973529411764</v>
       </c>
       <c r="F30" t="n">
-        <v>10.15160220994475</v>
+        <v>0.37975</v>
       </c>
       <c r="G30" t="n">
-        <v>43.74475138121548</v>
+        <v>0.6965882352941177</v>
       </c>
       <c r="H30" t="n">
-        <v>438.1160220994476</v>
+        <v>193.3077941176471</v>
       </c>
       <c r="I30" t="n">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="J30" t="n">
         <v>1959.847036328872</v>
@@ -1600,26 +1600,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>147.0935567010309</v>
+        <v>15.58169642857143</v>
       </c>
       <c r="E31" t="n">
-        <v>18.84793814432989</v>
+        <v>4.204471365638766</v>
       </c>
       <c r="F31" t="n">
-        <v>16.26550515463918</v>
+        <v>8.596475770925109</v>
       </c>
       <c r="G31" t="n">
-        <v>101.8781494845361</v>
+        <v>2.492202643171806</v>
       </c>
       <c r="H31" t="n">
-        <v>662.5820103092784</v>
+        <v>82.55572687224671</v>
       </c>
       <c r="I31" t="n">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="J31" t="n">
         <v>1959.847036328872</v>
@@ -1638,26 +1638,26 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>87.41657458563536</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>22.26618784530386</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>10.15160220994475</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>43.74475138121548</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>438.1160220994476</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J32" t="n">
         <v>1959.847036328872</v>
@@ -1676,26 +1676,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.0935567010309</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>18.84793814432989</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>16.26550515463918</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>101.8781494845361</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>662.5820103092784</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J33" t="n">
         <v>1959.847036328872</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1752,26 +1752,26 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>31.93602040816327</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>11.81042857142857</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.98474489795919</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.799857142857143</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>186.1967346938775</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>1959.847036328872</v>
@@ -1790,26 +1790,26 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20.04193548387097</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>5.606225806451612</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.002354838709678</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>11.50296774193548</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>106.4612903225806</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>1959.847036328872</v>
@@ -1828,26 +1828,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>17.52929936305732</v>
+        <v>31.93602040816327</v>
       </c>
       <c r="E37" t="n">
-        <v>2.398924050632912</v>
+        <v>11.81042857142857</v>
       </c>
       <c r="F37" t="n">
-        <v>2.904588607594937</v>
+        <v>16.98474489795919</v>
       </c>
       <c r="G37" t="n">
-        <v>8.189746835443037</v>
+        <v>2.799857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>74.00506329113925</v>
+        <v>186.1967346938775</v>
       </c>
       <c r="I37" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="J37" t="n">
         <v>1959.847036328872</v>
@@ -1861,34 +1861,34 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>112.770625</v>
+        <v>26.57647058823529</v>
       </c>
       <c r="E38" t="n">
-        <v>50.74556944444446</v>
+        <v>5.22</v>
       </c>
       <c r="F38" t="n">
-        <v>40.99295833333332</v>
+        <v>2.091176470588235</v>
       </c>
       <c r="G38" t="n">
-        <v>20.55222222222222</v>
+        <v>16.86176470588235</v>
       </c>
       <c r="H38" t="n">
-        <v>703.7924305555555</v>
+        <v>126.3705882352941</v>
       </c>
       <c r="I38" t="n">
-        <v>349</v>
+        <v>90</v>
       </c>
       <c r="J38" t="n">
-        <v>1840.344168260038</v>
+        <v>1959.847036328872</v>
       </c>
     </row>
     <row r="39">
@@ -1899,34 +1899,34 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.426666666666668</v>
+        <v>20.04193548387097</v>
       </c>
       <c r="E39" t="n">
-        <v>2.117333333333333</v>
+        <v>5.606225806451612</v>
       </c>
       <c r="F39" t="n">
-        <v>2.0096</v>
+        <v>2.002354838709678</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3082666666666667</v>
+        <v>11.50296774193548</v>
       </c>
       <c r="H39" t="n">
-        <v>28.33066666666667</v>
+        <v>106.4612903225806</v>
       </c>
       <c r="I39" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="J39" t="n">
-        <v>1840.344168260038</v>
+        <v>1959.847036328872</v>
       </c>
     </row>
     <row r="40">
@@ -1937,34 +1937,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19.12567164179104</v>
+        <v>17.52929936305732</v>
       </c>
       <c r="E40" t="n">
-        <v>18.28138235294118</v>
+        <v>2.398924050632912</v>
       </c>
       <c r="F40" t="n">
-        <v>0.33075</v>
+        <v>2.904588607594937</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6067058823529413</v>
+        <v>8.189746835443037</v>
       </c>
       <c r="H40" t="n">
-        <v>168.3648529411765</v>
+        <v>74.00506329113925</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="J40" t="n">
-        <v>1840.344168260038</v>
+        <v>1959.847036328872</v>
       </c>
     </row>
     <row r="41">
@@ -1980,26 +1980,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17.56482142857143</v>
+        <v>112.770625</v>
       </c>
       <c r="E41" t="n">
-        <v>4.7395859030837</v>
+        <v>50.74556944444446</v>
       </c>
       <c r="F41" t="n">
-        <v>9.690572687224666</v>
+        <v>40.99295833333332</v>
       </c>
       <c r="G41" t="n">
-        <v>2.809392070484581</v>
+        <v>20.55222222222222</v>
       </c>
       <c r="H41" t="n">
-        <v>93.06281938325992</v>
+        <v>703.7924305555555</v>
       </c>
       <c r="I41" t="n">
-        <v>62</v>
+        <v>349</v>
       </c>
       <c r="J41" t="n">
         <v>1840.344168260038</v>
@@ -2018,26 +2018,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>88.21127071823204</v>
+        <v>4.426666666666668</v>
       </c>
       <c r="E42" t="n">
-        <v>22.46860773480663</v>
+        <v>2.117333333333333</v>
       </c>
       <c r="F42" t="n">
-        <v>10.24388950276243</v>
+        <v>2.0096</v>
       </c>
       <c r="G42" t="n">
-        <v>44.14243093922654</v>
+        <v>0.3082666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>442.0988950276244</v>
+        <v>28.33066666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="J42" t="n">
         <v>1840.344168260038</v>
@@ -2056,26 +2056,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>139.9530927835052</v>
+        <v>19.12567164179104</v>
       </c>
       <c r="E43" t="n">
-        <v>17.93298969072165</v>
+        <v>18.28138235294118</v>
       </c>
       <c r="F43" t="n">
-        <v>15.47591752577319</v>
+        <v>0.33075</v>
       </c>
       <c r="G43" t="n">
-        <v>96.93260824742266</v>
+        <v>0.6067058823529413</v>
       </c>
       <c r="H43" t="n">
-        <v>630.4178350515464</v>
+        <v>168.3648529411765</v>
       </c>
       <c r="I43" t="n">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="J43" t="n">
         <v>1840.344168260038</v>
@@ -2094,26 +2094,26 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>17.56482142857143</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.7395859030837</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.690572687224666</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.809392070484581</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>93.06281938325992</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J44" t="n">
         <v>1840.344168260038</v>
@@ -2132,26 +2132,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>88.21127071823204</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>22.46860773480663</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10.24388950276243</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>44.14243093922654</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>442.0988950276244</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J45" t="n">
         <v>1840.344168260038</v>
@@ -2170,26 +2170,26 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.9530927835052</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>17.93298969072165</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.47591752577319</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>96.93260824742266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>630.4178350515464</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J46" t="n">
         <v>1840.344168260038</v>
@@ -2208,26 +2208,26 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>31.93602040816327</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>11.81042857142857</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>16.98474489795919</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.799857142857143</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>186.1967346938775</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>1840.344168260038</v>
@@ -2246,26 +2246,26 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17.22903225806452</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>4.819387096774193</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.721322580645162</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>9.888516129032258</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>91.51935483870967</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>1840.344168260038</v>
@@ -2284,26 +2284,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18.25464968152866</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>2.498189873417723</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>3.024778481012658</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>8.528632911392405</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>77.06734177215191</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>1840.344168260038</v>
@@ -2317,34 +2317,34 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>119.879375</v>
+        <v>31.93602040816327</v>
       </c>
       <c r="E50" t="n">
-        <v>53.94443055555556</v>
+        <v>11.81042857142857</v>
       </c>
       <c r="F50" t="n">
-        <v>43.57704166666665</v>
+        <v>16.98474489795919</v>
       </c>
       <c r="G50" t="n">
-        <v>21.84777777777778</v>
+        <v>2.799857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>748.1575694444443</v>
+        <v>186.1967346938775</v>
       </c>
       <c r="I50" t="n">
-        <v>371</v>
+        <v>94</v>
       </c>
       <c r="J50" t="n">
-        <v>1792.543021032505</v>
+        <v>1840.344168260038</v>
       </c>
     </row>
     <row r="51">
@@ -2355,34 +2355,34 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.426666666666668</v>
+        <v>31.00588235294117</v>
       </c>
       <c r="E51" t="n">
-        <v>2.117333333333333</v>
+        <v>6.09</v>
       </c>
       <c r="F51" t="n">
-        <v>2.0096</v>
+        <v>2.439705882352941</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3082666666666667</v>
+        <v>19.67205882352942</v>
       </c>
       <c r="H51" t="n">
-        <v>28.33066666666667</v>
+        <v>147.4323529411764</v>
       </c>
       <c r="I51" t="n">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="J51" t="n">
-        <v>1792.543021032505</v>
+        <v>1840.344168260038</v>
       </c>
     </row>
     <row r="52">
@@ -2393,34 +2393,34 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>18.41731343283582</v>
+        <v>17.22903225806452</v>
       </c>
       <c r="E52" t="n">
-        <v>17.60429411764706</v>
+        <v>4.819387096774193</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3185</v>
+        <v>1.721322580645162</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5842352941176472</v>
+        <v>9.888516129032258</v>
       </c>
       <c r="H52" t="n">
-        <v>162.1291176470588</v>
+        <v>91.51935483870967</v>
       </c>
       <c r="I52" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J52" t="n">
-        <v>1792.543021032505</v>
+        <v>1840.344168260038</v>
       </c>
     </row>
     <row r="53">
@@ -2431,34 +2431,34 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>20.11455357142857</v>
+        <v>18.25464968152866</v>
       </c>
       <c r="E53" t="n">
-        <v>5.427590308370044</v>
+        <v>2.498189873417723</v>
       </c>
       <c r="F53" t="n">
-        <v>11.09726872246696</v>
+        <v>3.024778481012658</v>
       </c>
       <c r="G53" t="n">
-        <v>3.21720704845815</v>
+        <v>8.528632911392405</v>
       </c>
       <c r="H53" t="n">
-        <v>106.5719383259912</v>
+        <v>77.06734177215191</v>
       </c>
       <c r="I53" t="n">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="J53" t="n">
-        <v>1792.543021032505</v>
+        <v>1840.344168260038</v>
       </c>
     </row>
     <row r="54">
@@ -2474,26 +2474,26 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>94.17149171270718</v>
+        <v>119.879375</v>
       </c>
       <c r="E54" t="n">
-        <v>23.98675690607734</v>
+        <v>53.94443055555556</v>
       </c>
       <c r="F54" t="n">
-        <v>10.93604419889503</v>
+        <v>43.57704166666665</v>
       </c>
       <c r="G54" t="n">
-        <v>47.1250276243094</v>
+        <v>21.84777777777778</v>
       </c>
       <c r="H54" t="n">
-        <v>471.9704419889503</v>
+        <v>748.1575694444443</v>
       </c>
       <c r="I54" t="n">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="J54" t="n">
         <v>1792.543021032505</v>
@@ -2512,26 +2512,26 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>129.956443298969</v>
+        <v>4.426666666666668</v>
       </c>
       <c r="E55" t="n">
-        <v>16.6520618556701</v>
+        <v>2.117333333333333</v>
       </c>
       <c r="F55" t="n">
-        <v>14.37049484536082</v>
+        <v>2.0096</v>
       </c>
       <c r="G55" t="n">
-        <v>90.00885051546391</v>
+        <v>0.3082666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>585.3879896907216</v>
+        <v>28.33066666666667</v>
       </c>
       <c r="I55" t="n">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="J55" t="n">
         <v>1792.543021032505</v>
@@ -2550,26 +2550,26 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>18.41731343283582</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>17.60429411764706</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.3185</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.5842352941176472</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>162.1291176470588</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J56" t="n">
         <v>1792.543021032505</v>
@@ -2588,26 +2588,26 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>20.11455357142857</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>5.427590308370044</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>11.09726872246696</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3.21720704845815</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>106.5719383259912</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J57" t="n">
         <v>1792.543021032505</v>
@@ -2626,26 +2626,26 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>94.17149171270718</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>23.98675690607734</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>10.93604419889503</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>47.1250276243094</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>471.9704419889503</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="J58" t="n">
         <v>1792.543021032505</v>
@@ -2664,26 +2664,26 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>29.2180612244898</v>
+        <v>129.956443298969</v>
       </c>
       <c r="E59" t="n">
-        <v>10.80528571428571</v>
+        <v>16.6520618556701</v>
       </c>
       <c r="F59" t="n">
-        <v>15.53923469387755</v>
+        <v>14.37049484536082</v>
       </c>
       <c r="G59" t="n">
-        <v>2.561571428571428</v>
+        <v>90.00885051546391</v>
       </c>
       <c r="H59" t="n">
-        <v>170.3502040816326</v>
+        <v>585.3879896907216</v>
       </c>
       <c r="I59" t="n">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="J59" t="n">
         <v>1792.543021032505</v>
@@ -2702,26 +2702,26 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>15.11935483870968</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>4.229258064516128</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.510548387096774</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>8.677677419354838</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>80.31290322580645</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>1792.543021032505</v>
@@ -2740,26 +2740,26 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>19.58445859872611</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>2.680177215189874</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.24512658227848</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>9.149924050632912</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>82.68151898734179</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>1792.543021032505</v>
@@ -2773,34 +2773,34 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>137.65125</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>61.94158333333334</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>50.03724999999999</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>25.08666666666667</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>859.0704166666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1720.841300191204</v>
+        <v>1792.543021032505</v>
       </c>
     </row>
     <row r="63">
@@ -2811,34 +2811,34 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3.873333333333334</v>
+        <v>29.2180612244898</v>
       </c>
       <c r="E63" t="n">
-        <v>1.852666666666666</v>
+        <v>10.80528571428571</v>
       </c>
       <c r="F63" t="n">
-        <v>1.7584</v>
+        <v>15.53923469387755</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2697333333333334</v>
+        <v>2.561571428571428</v>
       </c>
       <c r="H63" t="n">
-        <v>24.78933333333334</v>
+        <v>170.3502040816326</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="J63" t="n">
-        <v>1720.841300191204</v>
+        <v>1792.543021032505</v>
       </c>
     </row>
     <row r="64">
@@ -2849,34 +2849,34 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>14.16716417910448</v>
+        <v>32.18705882352941</v>
       </c>
       <c r="E64" t="n">
-        <v>13.54176470588235</v>
+        <v>6.321999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>0.245</v>
+        <v>2.532647058823529</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4494117647058825</v>
+        <v>20.4214705882353</v>
       </c>
       <c r="H64" t="n">
-        <v>124.714705882353</v>
+        <v>153.0488235294117</v>
       </c>
       <c r="I64" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="J64" t="n">
-        <v>1720.841300191204</v>
+        <v>1792.543021032505</v>
       </c>
     </row>
     <row r="65">
@@ -2887,34 +2887,34 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>20.68116071428571</v>
+        <v>15.11935483870968</v>
       </c>
       <c r="E65" t="n">
-        <v>5.580480176211454</v>
+        <v>4.229258064516128</v>
       </c>
       <c r="F65" t="n">
-        <v>11.40986784140969</v>
+        <v>1.510548387096774</v>
       </c>
       <c r="G65" t="n">
-        <v>3.307832599118943</v>
+        <v>8.677677419354838</v>
       </c>
       <c r="H65" t="n">
-        <v>109.5739647577092</v>
+        <v>80.31290322580645</v>
       </c>
       <c r="I65" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J65" t="n">
-        <v>1720.841300191204</v>
+        <v>1792.543021032505</v>
       </c>
     </row>
     <row r="66">
@@ -2925,34 +2925,34 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>88.60861878453039</v>
+        <v>19.58445859872611</v>
       </c>
       <c r="E66" t="n">
-        <v>22.56981767955801</v>
+        <v>2.680177215189874</v>
       </c>
       <c r="F66" t="n">
-        <v>10.29003314917127</v>
+        <v>3.24512658227848</v>
       </c>
       <c r="G66" t="n">
-        <v>44.34127071823205</v>
+        <v>9.149924050632912</v>
       </c>
       <c r="H66" t="n">
-        <v>444.0903314917128</v>
+        <v>82.68151898734179</v>
       </c>
       <c r="I66" t="n">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="J66" t="n">
-        <v>1720.841300191204</v>
+        <v>1792.543021032505</v>
       </c>
     </row>
     <row r="67">
@@ -2968,26 +2968,26 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>129.2423969072165</v>
+        <v>137.65125</v>
       </c>
       <c r="E67" t="n">
-        <v>16.56056701030928</v>
+        <v>61.94158333333334</v>
       </c>
       <c r="F67" t="n">
-        <v>14.29153608247423</v>
+        <v>50.03724999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>89.51429639175258</v>
+        <v>25.08666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>582.1715721649485</v>
+        <v>859.0704166666666</v>
       </c>
       <c r="I67" t="n">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="J67" t="n">
         <v>1720.841300191204</v>
@@ -3006,26 +3006,26 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>3.873333333333334</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1.852666666666666</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1.7584</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.2697333333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>24.78933333333334</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J68" t="n">
         <v>1720.841300191204</v>
@@ -3044,26 +3044,26 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>14.16716417910448</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>13.54176470588235</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.4494117647058825</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>124.714705882353</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J69" t="n">
         <v>1720.841300191204</v>
@@ -3082,26 +3082,26 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>20.68116071428571</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>5.580480176211454</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>11.40986784140969</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3.307832599118943</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>109.5739647577092</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J70" t="n">
         <v>1720.841300191204</v>
@@ -3120,26 +3120,26 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>26.50010204081633</v>
+        <v>88.60861878453039</v>
       </c>
       <c r="E71" t="n">
-        <v>9.800142857142854</v>
+        <v>22.56981767955801</v>
       </c>
       <c r="F71" t="n">
-        <v>14.09372448979592</v>
+        <v>10.29003314917127</v>
       </c>
       <c r="G71" t="n">
-        <v>2.323285714285714</v>
+        <v>44.34127071823205</v>
       </c>
       <c r="H71" t="n">
-        <v>154.5036734693877</v>
+        <v>444.0903314917128</v>
       </c>
       <c r="I71" t="n">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="J71" t="n">
         <v>1720.841300191204</v>
@@ -3158,26 +3158,26 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14.76774193548387</v>
+        <v>129.2423969072165</v>
       </c>
       <c r="E72" t="n">
-        <v>4.130903225806451</v>
+        <v>16.56056701030928</v>
       </c>
       <c r="F72" t="n">
-        <v>1.47541935483871</v>
+        <v>14.29153608247423</v>
       </c>
       <c r="G72" t="n">
-        <v>8.475870967741935</v>
+        <v>89.51429639175258</v>
       </c>
       <c r="H72" t="n">
-        <v>78.44516129032259</v>
+        <v>582.1715721649485</v>
       </c>
       <c r="I72" t="n">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="J72" t="n">
         <v>1720.841300191204</v>
@@ -3196,26 +3196,26 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>19.58445859872611</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>2.680177215189874</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>3.24512658227848</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>9.149924050632912</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>82.68151898734179</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>1720.841300191204</v>
@@ -3229,34 +3229,34 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>125.3725</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>56.41627777777779</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>45.57383333333333</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>22.84888888888889</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>782.4397222222221</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1673.040152963671</v>
+        <v>1720.841300191204</v>
       </c>
     </row>
     <row r="75">
@@ -3267,34 +3267,34 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4.426666666666668</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>2.117333333333333</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>2.0096</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3082666666666667</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>28.33066666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1673.040152963671</v>
+        <v>1720.841300191204</v>
       </c>
     </row>
     <row r="76">
@@ -3305,34 +3305,34 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14.8755223880597</v>
+        <v>26.50010204081633</v>
       </c>
       <c r="E76" t="n">
-        <v>14.21885294117647</v>
+        <v>9.800142857142854</v>
       </c>
       <c r="F76" t="n">
-        <v>0.25725</v>
+        <v>14.09372448979592</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4718823529411765</v>
+        <v>2.323285714285714</v>
       </c>
       <c r="H76" t="n">
-        <v>130.9504411764706</v>
+        <v>154.5036734693877</v>
       </c>
       <c r="I76" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J76" t="n">
-        <v>1673.040152963671</v>
+        <v>1720.841300191204</v>
       </c>
     </row>
     <row r="77">
@@ -3343,34 +3343,34 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>19.26464285714285</v>
+        <v>36.61647058823529</v>
       </c>
       <c r="E77" t="n">
-        <v>5.198255506607929</v>
+        <v>7.191999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>10.62837004405286</v>
+        <v>2.881176470588235</v>
       </c>
       <c r="G77" t="n">
-        <v>3.08126872246696</v>
+        <v>23.23176470588236</v>
       </c>
       <c r="H77" t="n">
-        <v>102.0688986784141</v>
+        <v>174.110588235294</v>
       </c>
       <c r="I77" t="n">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="J77" t="n">
-        <v>1673.040152963671</v>
+        <v>1720.841300191204</v>
       </c>
     </row>
     <row r="78">
@@ -3381,34 +3381,34 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>101.7211049723757</v>
+        <v>14.76774193548387</v>
       </c>
       <c r="E78" t="n">
-        <v>25.90974585635359</v>
+        <v>4.130903225806451</v>
       </c>
       <c r="F78" t="n">
-        <v>11.81277348066298</v>
+        <v>1.47541935483871</v>
       </c>
       <c r="G78" t="n">
-        <v>50.90298342541438</v>
+        <v>8.475870967741935</v>
       </c>
       <c r="H78" t="n">
-        <v>509.8077348066299</v>
+        <v>78.44516129032259</v>
       </c>
       <c r="I78" t="n">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="J78" t="n">
-        <v>1673.040152963671</v>
+        <v>1720.841300191204</v>
       </c>
     </row>
     <row r="79">
@@ -3419,34 +3419,34 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>115.6755154639175</v>
+        <v>19.58445859872611</v>
       </c>
       <c r="E79" t="n">
-        <v>14.82216494845361</v>
+        <v>2.680177215189874</v>
       </c>
       <c r="F79" t="n">
-        <v>12.79131958762887</v>
+        <v>3.24512658227848</v>
       </c>
       <c r="G79" t="n">
-        <v>80.1177680412371</v>
+        <v>9.149924050632912</v>
       </c>
       <c r="H79" t="n">
-        <v>521.0596391752578</v>
+        <v>82.68151898734179</v>
       </c>
       <c r="I79" t="n">
         <v>162</v>
       </c>
       <c r="J79" t="n">
-        <v>1673.040152963671</v>
+        <v>1720.841300191204</v>
       </c>
     </row>
     <row r="80">
@@ -3462,26 +3462,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>125.3725</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>56.41627777777779</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>45.57383333333333</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>22.84888888888889</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>782.4397222222221</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="J80" t="n">
         <v>1673.040152963671</v>
@@ -3500,26 +3500,26 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>4.426666666666668</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2.117333333333333</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2.0096</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.3082666666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>28.33066666666667</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J81" t="n">
         <v>1673.040152963671</v>
@@ -3538,26 +3538,26 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>14.8755223880597</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>14.21885294117647</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.25725</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.4718823529411765</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>130.9504411764706</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J82" t="n">
         <v>1673.040152963671</v>
@@ -3576,26 +3576,26 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>22.08341836734694</v>
+        <v>19.26464285714285</v>
       </c>
       <c r="E83" t="n">
-        <v>8.166785714285711</v>
+        <v>5.198255506607929</v>
       </c>
       <c r="F83" t="n">
-        <v>11.74477040816327</v>
+        <v>10.62837004405286</v>
       </c>
       <c r="G83" t="n">
-        <v>1.936071428571428</v>
+        <v>3.08126872246696</v>
       </c>
       <c r="H83" t="n">
-        <v>128.7530612244898</v>
+        <v>102.0688986784141</v>
       </c>
       <c r="I83" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J83" t="n">
         <v>1673.040152963671</v>
@@ -3614,26 +3614,26 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>15.47096774193549</v>
+        <v>101.7211049723757</v>
       </c>
       <c r="E84" t="n">
-        <v>4.327612903225805</v>
+        <v>25.90974585635359</v>
       </c>
       <c r="F84" t="n">
-        <v>1.545677419354839</v>
+        <v>11.81277348066298</v>
       </c>
       <c r="G84" t="n">
-        <v>8.879483870967741</v>
+        <v>50.90298342541438</v>
       </c>
       <c r="H84" t="n">
-        <v>82.18064516129033</v>
+        <v>509.8077348066299</v>
       </c>
       <c r="I84" t="n">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="J84" t="n">
         <v>1673.040152963671</v>
@@ -3652,26 +3652,26 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>18.85910828025477</v>
+        <v>115.6755154639175</v>
       </c>
       <c r="E85" t="n">
-        <v>2.580911392405064</v>
+        <v>14.82216494845361</v>
       </c>
       <c r="F85" t="n">
-        <v>3.124936708860759</v>
+        <v>12.79131958762887</v>
       </c>
       <c r="G85" t="n">
-        <v>8.811037974683543</v>
+        <v>80.1177680412371</v>
       </c>
       <c r="H85" t="n">
-        <v>79.61924050632912</v>
+        <v>521.0596391752578</v>
       </c>
       <c r="I85" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J85" t="n">
         <v>1673.040152963671</v>
@@ -3680,267 +3680,267 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>249.129375</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>112.1055416666667</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>90.56037499999996</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>45.40333333333334</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1554.796458333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3322.179732313575</v>
+        <v>1673.040152963671</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4.703333333333334</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>2.249666666666666</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2.1352</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3275333333333334</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>30.10133333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3322.179732313575</v>
+        <v>1673.040152963671</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>36.12626865671642</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>34.53149999999999</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.62475</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1.146</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>318.0225</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3322.179732313575</v>
+        <v>1673.040152963671</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13.31526785714285</v>
+        <v>22.08341836734694</v>
       </c>
       <c r="E89" t="n">
-        <v>3.592911894273128</v>
+        <v>8.166785714285711</v>
       </c>
       <c r="F89" t="n">
-        <v>7.346079295154182</v>
+        <v>11.74477040816327</v>
       </c>
       <c r="G89" t="n">
-        <v>2.129700440528634</v>
+        <v>1.936071428571428</v>
       </c>
       <c r="H89" t="n">
-        <v>70.54762114537445</v>
+        <v>128.7530612244898</v>
       </c>
       <c r="I89" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="J89" t="n">
-        <v>3322.179732313575</v>
+        <v>1673.040152963671</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>91.39005524861878</v>
+        <v>36.91176470588235</v>
       </c>
       <c r="E90" t="n">
-        <v>23.27828729281768</v>
+        <v>7.25</v>
       </c>
       <c r="F90" t="n">
-        <v>10.61303867403315</v>
+        <v>2.904411764705882</v>
       </c>
       <c r="G90" t="n">
-        <v>45.73314917127073</v>
+        <v>23.41911764705883</v>
       </c>
       <c r="H90" t="n">
-        <v>458.0303867403316</v>
+        <v>175.5147058823529</v>
       </c>
       <c r="I90" t="n">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="J90" t="n">
-        <v>3322.179732313575</v>
+        <v>1673.040152963671</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>243.4898195876289</v>
+        <v>15.47096774193549</v>
       </c>
       <c r="E91" t="n">
-        <v>31.19974226804124</v>
+        <v>4.327612903225805</v>
       </c>
       <c r="F91" t="n">
-        <v>26.92493814432989</v>
+        <v>1.545677419354839</v>
       </c>
       <c r="G91" t="n">
-        <v>168.642956185567</v>
+        <v>8.879483870967741</v>
       </c>
       <c r="H91" t="n">
-        <v>1096.79837628866</v>
+        <v>82.18064516129033</v>
       </c>
       <c r="I91" t="n">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="J91" t="n">
-        <v>3322.179732313575</v>
+        <v>1673.040152963671</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>18.85910828025477</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>2.580911392405064</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>3.124936708860759</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>8.811037974683543</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>79.61924050632912</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J92" t="n">
-        <v>3322.179732313575</v>
+        <v>1673.040152963671</v>
       </c>
     </row>
     <row r="93">
@@ -3956,26 +3956,26 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>249.129375</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>112.1055416666667</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>90.56037499999996</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>45.40333333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1554.796458333333</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="J93" t="n">
         <v>3322.179732313575</v>
@@ -3994,26 +3994,26 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>4.703333333333334</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>2.249666666666666</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2.1352</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.3275333333333334</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>30.10133333333334</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J94" t="n">
         <v>3322.179732313575</v>
@@ -4032,26 +4032,26 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>47.9040306122449</v>
+        <v>36.12626865671642</v>
       </c>
       <c r="E95" t="n">
-        <v>17.71564285714285</v>
+        <v>34.53149999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>25.47711734693878</v>
+        <v>0.62475</v>
       </c>
       <c r="G95" t="n">
-        <v>4.199785714285714</v>
+        <v>1.146</v>
       </c>
       <c r="H95" t="n">
-        <v>279.2951020408163</v>
+        <v>318.0225</v>
       </c>
       <c r="I95" t="n">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="J95" t="n">
         <v>3322.179732313575</v>
@@ -4070,26 +4070,26 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>38.67741935483871</v>
+        <v>13.31526785714285</v>
       </c>
       <c r="E96" t="n">
-        <v>10.81903225806452</v>
+        <v>3.592911894273128</v>
       </c>
       <c r="F96" t="n">
-        <v>3.864193548387097</v>
+        <v>7.346079295154182</v>
       </c>
       <c r="G96" t="n">
-        <v>22.19870967741936</v>
+        <v>2.129700440528634</v>
       </c>
       <c r="H96" t="n">
-        <v>205.4516129032258</v>
+        <v>70.54762114537445</v>
       </c>
       <c r="I96" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="J96" t="n">
         <v>3322.179732313575</v>
@@ -4108,26 +4108,26 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>12.33095541401274</v>
+        <v>91.39005524861878</v>
       </c>
       <c r="E97" t="n">
-        <v>1.687518987341773</v>
+        <v>23.27828729281768</v>
       </c>
       <c r="F97" t="n">
-        <v>2.043227848101266</v>
+        <v>10.61303867403315</v>
       </c>
       <c r="G97" t="n">
-        <v>5.761063291139241</v>
+        <v>45.73314917127073</v>
       </c>
       <c r="H97" t="n">
-        <v>52.0587341772152</v>
+        <v>458.0303867403316</v>
       </c>
       <c r="I97" t="n">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="J97" t="n">
         <v>3322.179732313575</v>
@@ -4141,34 +4141,34 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>227.48</v>
+        <v>243.4898195876289</v>
       </c>
       <c r="E98" t="n">
-        <v>102.3635555555556</v>
+        <v>31.19974226804124</v>
       </c>
       <c r="F98" t="n">
-        <v>82.69066666666664</v>
+        <v>26.92493814432989</v>
       </c>
       <c r="G98" t="n">
-        <v>41.45777777777779</v>
+        <v>168.642956185567</v>
       </c>
       <c r="H98" t="n">
-        <v>1419.684444444444</v>
+        <v>1096.79837628866</v>
       </c>
       <c r="I98" t="n">
-        <v>704</v>
+        <v>341</v>
       </c>
       <c r="J98" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="99">
@@ -4179,34 +4179,34 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5.810000000000001</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>2.778999999999999</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2.6376</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4046000000000001</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>37.184</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="100">
@@ -4217,34 +4217,34 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>36.83462686567164</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>35.20858823529412</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.637</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1.168470588235294</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>324.2582352941176</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="101">
@@ -4255,34 +4255,34 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>15.01508928571428</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>4.051581497797357</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>8.283876651982377</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2.401577092511013</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>79.55370044052864</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="102">
@@ -4293,34 +4293,34 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>85.03248618784529</v>
+        <v>47.9040306122449</v>
       </c>
       <c r="E102" t="n">
-        <v>21.65892817679558</v>
+        <v>17.71564285714285</v>
       </c>
       <c r="F102" t="n">
-        <v>9.874740331491713</v>
+        <v>25.47711734693878</v>
       </c>
       <c r="G102" t="n">
-        <v>42.55171270718233</v>
+        <v>4.199785714285714</v>
       </c>
       <c r="H102" t="n">
-        <v>426.1674033149172</v>
+        <v>279.2951020408163</v>
       </c>
       <c r="I102" t="n">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="J102" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="103">
@@ -4331,34 +4331,34 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>236.3493556701031</v>
+        <v>40.45529411764706</v>
       </c>
       <c r="E103" t="n">
-        <v>30.28479381443299</v>
+        <v>7.946000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>26.13535051546392</v>
+        <v>3.183235294117647</v>
       </c>
       <c r="G103" t="n">
-        <v>163.6974149484536</v>
+        <v>25.66735294117647</v>
       </c>
       <c r="H103" t="n">
-        <v>1064.634201030928</v>
+        <v>192.3641176470587</v>
       </c>
       <c r="I103" t="n">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="J103" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="104">
@@ -4369,34 +4369,34 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>38.67741935483871</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>10.81903225806452</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>3.864193548387097</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>22.19870967741936</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>205.4516129032258</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J104" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="105">
@@ -4407,34 +4407,34 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>12.33095541401274</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1.687518987341773</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>2.043227848101266</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>5.761063291139241</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>52.0587341772152</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J105" t="n">
-        <v>3011.472275334608</v>
+        <v>3322.179732313575</v>
       </c>
     </row>
     <row r="106">
@@ -4450,26 +4450,26 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>227.48</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>102.3635555555556</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>82.69066666666664</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>41.45777777777779</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1419.684444444444</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="J106" t="n">
         <v>3011.472275334608</v>
@@ -4488,26 +4488,26 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>47.9040306122449</v>
+        <v>5.810000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>17.71564285714285</v>
+        <v>2.778999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>25.47711734693878</v>
+        <v>2.6376</v>
       </c>
       <c r="G107" t="n">
-        <v>4.199785714285714</v>
+        <v>0.4046000000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>279.2951020408163</v>
+        <v>37.184</v>
       </c>
       <c r="I107" t="n">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="J107" t="n">
         <v>3011.472275334608</v>
@@ -4526,26 +4526,26 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>19.69032258064516</v>
+        <v>36.83462686567164</v>
       </c>
       <c r="E108" t="n">
-        <v>5.507870967741935</v>
+        <v>35.20858823529412</v>
       </c>
       <c r="F108" t="n">
-        <v>1.967225806451613</v>
+        <v>0.637</v>
       </c>
       <c r="G108" t="n">
-        <v>11.30116129032258</v>
+        <v>1.168470588235294</v>
       </c>
       <c r="H108" t="n">
-        <v>104.5935483870968</v>
+        <v>324.2582352941176</v>
       </c>
       <c r="I108" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J108" t="n">
         <v>3011.472275334608</v>
@@ -4564,26 +4564,26 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>12.45184713375796</v>
+        <v>15.01508928571428</v>
       </c>
       <c r="E109" t="n">
-        <v>1.704063291139241</v>
+        <v>4.051581497797357</v>
       </c>
       <c r="F109" t="n">
-        <v>2.063259493670885</v>
+        <v>8.283876651982377</v>
       </c>
       <c r="G109" t="n">
-        <v>5.817544303797469</v>
+        <v>2.401577092511013</v>
       </c>
       <c r="H109" t="n">
-        <v>52.56911392405064</v>
+        <v>79.55370044052864</v>
       </c>
       <c r="I109" t="n">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="J109" t="n">
         <v>3011.472275334608</v>
@@ -4597,34 +4597,34 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>178.365</v>
+        <v>85.03248618784529</v>
       </c>
       <c r="E110" t="n">
-        <v>80.26233333333334</v>
+        <v>21.65892817679558</v>
       </c>
       <c r="F110" t="n">
-        <v>64.83699999999997</v>
+        <v>9.874740331491713</v>
       </c>
       <c r="G110" t="n">
-        <v>32.50666666666667</v>
+        <v>42.55171270718233</v>
       </c>
       <c r="H110" t="n">
-        <v>1113.161666666667</v>
+        <v>426.1674033149172</v>
       </c>
       <c r="I110" t="n">
-        <v>552</v>
+        <v>214</v>
       </c>
       <c r="J110" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="111">
@@ -4635,34 +4635,34 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5.533333333333335</v>
+        <v>236.3493556701031</v>
       </c>
       <c r="E111" t="n">
-        <v>2.646666666666667</v>
+        <v>30.28479381443299</v>
       </c>
       <c r="F111" t="n">
-        <v>2.512</v>
+        <v>26.13535051546392</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3853333333333334</v>
+        <v>163.6974149484536</v>
       </c>
       <c r="H111" t="n">
-        <v>35.41333333333334</v>
+        <v>1064.634201030928</v>
       </c>
       <c r="I111" t="n">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="J111" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="112">
@@ -4673,34 +4673,34 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>32.58447761194029</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>31.14605882352941</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5635</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.03364705882353</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>286.8438235294118</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="113">
@@ -4711,34 +4711,34 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>19.83125</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>5.35114537444934</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>10.94096916299559</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>3.171894273127753</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>105.0709251101322</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="114">
@@ -4749,34 +4749,34 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>89.40331491712706</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>22.77223756906077</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>10.38232044198895</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>44.7389502762431</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>448.0732044198895</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="115">
@@ -4787,34 +4787,34 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>209.9296391752577</v>
+        <v>47.9040306122449</v>
       </c>
       <c r="E115" t="n">
-        <v>26.89948453608247</v>
+        <v>17.71564285714285</v>
       </c>
       <c r="F115" t="n">
-        <v>23.21387628865979</v>
+        <v>25.47711734693878</v>
       </c>
       <c r="G115" t="n">
-        <v>145.398912371134</v>
+        <v>4.199785714285714</v>
       </c>
       <c r="H115" t="n">
-        <v>945.6267525773197</v>
+        <v>279.2951020408163</v>
       </c>
       <c r="I115" t="n">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="J115" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="116">
@@ -4825,34 +4825,34 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>36.02588235294117</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>7.076000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2.834705882352941</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>22.85705882352941</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>171.3023529411764</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J116" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="117">
@@ -4863,34 +4863,34 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>19.69032258064516</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>5.507870967741935</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1.967225806451613</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>11.30116129032258</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>104.5935483870968</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J117" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="118">
@@ -4901,34 +4901,34 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>12.45184713375796</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1.704063291139241</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>2.063259493670885</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>5.817544303797469</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>52.56911392405064</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J118" t="n">
-        <v>2724.665391969407</v>
+        <v>3011.472275334608</v>
       </c>
     </row>
     <row r="119">
@@ -4944,26 +4944,26 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>48.58352040816327</v>
+        <v>178.365</v>
       </c>
       <c r="E119" t="n">
-        <v>17.96692857142856</v>
+        <v>80.26233333333334</v>
       </c>
       <c r="F119" t="n">
-        <v>25.83849489795919</v>
+        <v>64.83699999999997</v>
       </c>
       <c r="G119" t="n">
-        <v>4.259357142857143</v>
+        <v>32.50666666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>283.2567346938775</v>
+        <v>1113.161666666667</v>
       </c>
       <c r="I119" t="n">
-        <v>143</v>
+        <v>552</v>
       </c>
       <c r="J119" t="n">
         <v>2724.665391969407</v>
@@ -4982,26 +4982,26 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>23.55806451612903</v>
+        <v>5.533333333333335</v>
       </c>
       <c r="E120" t="n">
-        <v>6.589774193548386</v>
+        <v>2.646666666666667</v>
       </c>
       <c r="F120" t="n">
-        <v>2.353645161290323</v>
+        <v>2.512</v>
       </c>
       <c r="G120" t="n">
-        <v>13.52103225806452</v>
+        <v>0.3853333333333334</v>
       </c>
       <c r="H120" t="n">
-        <v>125.1387096774194</v>
+        <v>35.41333333333334</v>
       </c>
       <c r="I120" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="J120" t="n">
         <v>2724.665391969407</v>
@@ -5020,26 +5020,26 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>14.74878980891719</v>
+        <v>32.58447761194029</v>
       </c>
       <c r="E121" t="n">
-        <v>2.01840506329114</v>
+        <v>31.14605882352941</v>
       </c>
       <c r="F121" t="n">
-        <v>2.443860759493671</v>
+        <v>0.5635</v>
       </c>
       <c r="G121" t="n">
-        <v>6.890683544303797</v>
+        <v>1.03364705882353</v>
       </c>
       <c r="H121" t="n">
-        <v>62.26632911392406</v>
+        <v>286.8438235294118</v>
       </c>
       <c r="I121" t="n">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="J121" t="n">
         <v>2724.665391969407</v>
@@ -5053,34 +5053,34 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>166.7325</v>
+        <v>19.83125</v>
       </c>
       <c r="E122" t="n">
-        <v>75.02783333333335</v>
+        <v>5.35114537444934</v>
       </c>
       <c r="F122" t="n">
-        <v>60.60849999999999</v>
+        <v>10.94096916299559</v>
       </c>
       <c r="G122" t="n">
-        <v>30.38666666666667</v>
+        <v>3.171894273127753</v>
       </c>
       <c r="H122" t="n">
-        <v>1040.564166666667</v>
+        <v>105.0709251101322</v>
       </c>
       <c r="I122" t="n">
-        <v>516</v>
+        <v>70</v>
       </c>
       <c r="J122" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="123">
@@ -5091,34 +5091,34 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5.256666666666668</v>
+        <v>89.40331491712706</v>
       </c>
       <c r="E123" t="n">
-        <v>2.514333333333333</v>
+        <v>22.77223756906077</v>
       </c>
       <c r="F123" t="n">
-        <v>2.3864</v>
+        <v>10.38232044198895</v>
       </c>
       <c r="G123" t="n">
-        <v>0.3660666666666667</v>
+        <v>44.7389502762431</v>
       </c>
       <c r="H123" t="n">
-        <v>33.64266666666667</v>
+        <v>448.0732044198895</v>
       </c>
       <c r="I123" t="n">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="J123" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="124">
@@ -5129,34 +5129,34 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>28.33432835820895</v>
+        <v>209.9296391752577</v>
       </c>
       <c r="E124" t="n">
-        <v>27.0835294117647</v>
+        <v>26.89948453608247</v>
       </c>
       <c r="F124" t="n">
-        <v>0.49</v>
+        <v>23.21387628865979</v>
       </c>
       <c r="G124" t="n">
-        <v>0.8988235294117649</v>
+        <v>145.398912371134</v>
       </c>
       <c r="H124" t="n">
-        <v>249.4294117647059</v>
+        <v>945.6267525773197</v>
       </c>
       <c r="I124" t="n">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="J124" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="125">
@@ -5167,34 +5167,34 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>21.24776785714285</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>5.733370044052863</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>11.72246696035242</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>3.398458149779735</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>112.5759911894273</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="126">
@@ -5205,34 +5205,34 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>86.22453038674034</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>21.96255801104972</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>10.01317127071823</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>43.14823204419891</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>432.1417127071824</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="127">
@@ -5243,34 +5243,34 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>205.6453608247422</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>26.35051546391752</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>22.74012371134021</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>142.431587628866</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>926.3282474226804</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="128">
@@ -5281,34 +5281,34 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>48.58352040816327</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>17.96692857142856</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>25.83849489795919</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>4.259357142857143</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>283.2567346938775</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J128" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="129">
@@ -5319,34 +5319,34 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>41.63647058823529</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>8.177999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>3.276176470588235</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>26.41676470588236</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>197.980588235294</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J129" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="130">
@@ -5357,34 +5357,34 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>23.55806451612903</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>6.589774193548386</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>2.353645161290323</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>13.52103225806452</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>125.1387096774194</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J130" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="131">
@@ -5395,34 +5395,34 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>40.42964285714286</v>
+        <v>14.74878980891719</v>
       </c>
       <c r="E131" t="n">
-        <v>14.95149999999999</v>
+        <v>2.01840506329114</v>
       </c>
       <c r="F131" t="n">
-        <v>21.50196428571429</v>
+        <v>2.443860759493671</v>
       </c>
       <c r="G131" t="n">
-        <v>3.544499999999999</v>
+        <v>6.890683544303797</v>
       </c>
       <c r="H131" t="n">
-        <v>235.7171428571428</v>
+        <v>62.26632911392406</v>
       </c>
       <c r="I131" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J131" t="n">
-        <v>2509.560229445507</v>
+        <v>2724.665391969407</v>
       </c>
     </row>
     <row r="132">
@@ -5438,26 +5438,26 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>19.69032258064516</v>
+        <v>166.7325</v>
       </c>
       <c r="E132" t="n">
-        <v>5.507870967741935</v>
+        <v>75.02783333333335</v>
       </c>
       <c r="F132" t="n">
-        <v>1.967225806451613</v>
+        <v>60.60849999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>11.30116129032258</v>
+        <v>30.38666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>104.5935483870968</v>
+        <v>1040.564166666667</v>
       </c>
       <c r="I132" t="n">
-        <v>56</v>
+        <v>516</v>
       </c>
       <c r="J132" t="n">
         <v>2509.560229445507</v>
@@ -5476,26 +5476,26 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>15.47414012738853</v>
+        <v>5.256666666666668</v>
       </c>
       <c r="E133" t="n">
-        <v>2.11767088607595</v>
+        <v>2.514333333333333</v>
       </c>
       <c r="F133" t="n">
-        <v>2.564050632911392</v>
+        <v>2.3864</v>
       </c>
       <c r="G133" t="n">
-        <v>7.229569620253164</v>
+        <v>0.3660666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>65.32860759493673</v>
+        <v>33.64266666666667</v>
       </c>
       <c r="I133" t="n">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="J133" t="n">
         <v>2509.560229445507</v>
@@ -5509,34 +5509,34 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>146.69875</v>
+        <v>28.33432835820895</v>
       </c>
       <c r="E134" t="n">
-        <v>66.01286111111112</v>
+        <v>27.0835294117647</v>
       </c>
       <c r="F134" t="n">
-        <v>53.32608333333332</v>
+        <v>0.49</v>
       </c>
       <c r="G134" t="n">
-        <v>26.73555555555556</v>
+        <v>0.8988235294117649</v>
       </c>
       <c r="H134" t="n">
-        <v>915.5351388888888</v>
+        <v>249.4294117647059</v>
       </c>
       <c r="I134" t="n">
-        <v>454</v>
+        <v>40</v>
       </c>
       <c r="J134" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="135">
@@ -5547,34 +5547,34 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5.533333333333335</v>
+        <v>21.24776785714285</v>
       </c>
       <c r="E135" t="n">
-        <v>2.646666666666667</v>
+        <v>5.733370044052863</v>
       </c>
       <c r="F135" t="n">
-        <v>2.512</v>
+        <v>11.72246696035242</v>
       </c>
       <c r="G135" t="n">
-        <v>0.3853333333333334</v>
+        <v>3.398458149779735</v>
       </c>
       <c r="H135" t="n">
-        <v>35.41333333333334</v>
+        <v>112.5759911894273</v>
       </c>
       <c r="I135" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J135" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="136">
@@ -5585,34 +5585,34 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>24.79253731343283</v>
+        <v>86.22453038674034</v>
       </c>
       <c r="E136" t="n">
-        <v>23.69808823529412</v>
+        <v>21.96255801104972</v>
       </c>
       <c r="F136" t="n">
-        <v>0.42875</v>
+        <v>10.01317127071823</v>
       </c>
       <c r="G136" t="n">
-        <v>0.7864705882352944</v>
+        <v>43.14823204419891</v>
       </c>
       <c r="H136" t="n">
-        <v>218.2507352941176</v>
+        <v>432.1417127071824</v>
       </c>
       <c r="I136" t="n">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="J136" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="137">
@@ -5623,34 +5623,34 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>25.780625</v>
+        <v>205.6453608247422</v>
       </c>
       <c r="E137" t="n">
-        <v>6.956488986784141</v>
+        <v>26.35051546391752</v>
       </c>
       <c r="F137" t="n">
-        <v>14.22325991189427</v>
+        <v>22.74012371134021</v>
       </c>
       <c r="G137" t="n">
-        <v>4.123462555066079</v>
+        <v>142.431587628866</v>
       </c>
       <c r="H137" t="n">
-        <v>136.5922026431718</v>
+        <v>926.3282474226804</v>
       </c>
       <c r="I137" t="n">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="J137" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="138">
@@ -5661,34 +5661,34 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>85.03248618784529</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>21.65892817679558</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>9.874740331491713</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>42.55171270718233</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>426.1674033149172</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="139">
@@ -5699,34 +5699,34 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>179.2256443298969</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>22.96520618556701</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>19.81864948453608</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>124.1330850515464</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>807.3207989690723</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="140">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="141">
@@ -5775,34 +5775,34 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>40.42964285714286</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>14.95149999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>21.50196428571429</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>3.544499999999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>235.7171428571428</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J141" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="142">
@@ -5813,34 +5813,34 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>43.11294117647058</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>8.468</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>3.392352941176471</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>27.35352941176471</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>205.0011764705881</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J142" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="143">
@@ -5851,34 +5851,34 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Sweets and snacks</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>38.39117346938777</v>
+        <v>19.69032258064516</v>
       </c>
       <c r="E143" t="n">
-        <v>14.19764285714285</v>
+        <v>5.507870967741935</v>
       </c>
       <c r="F143" t="n">
-        <v>20.41783163265306</v>
+        <v>1.967225806451613</v>
       </c>
       <c r="G143" t="n">
-        <v>3.365785714285713</v>
+        <v>11.30116129032258</v>
       </c>
       <c r="H143" t="n">
-        <v>223.8322448979592</v>
+        <v>104.5935483870968</v>
       </c>
       <c r="I143" t="n">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="J143" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="144">
@@ -5889,34 +5889,34 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Vegetables</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>20.39354838709678</v>
+        <v>15.47414012738853</v>
       </c>
       <c r="E144" t="n">
-        <v>5.70458064516129</v>
+        <v>2.11767088607595</v>
       </c>
       <c r="F144" t="n">
-        <v>2.037483870967742</v>
+        <v>2.564050632911392</v>
       </c>
       <c r="G144" t="n">
-        <v>11.70477419354839</v>
+        <v>7.229569620253164</v>
       </c>
       <c r="H144" t="n">
-        <v>108.3290322580645</v>
+        <v>65.32860759493673</v>
       </c>
       <c r="I144" t="n">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="J144" t="n">
-        <v>2342.256214149139</v>
+        <v>2509.560229445507</v>
       </c>
     </row>
     <row r="145">
@@ -5932,26 +5932,26 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vegetables</t>
+          <t>Dairy and alternatives</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>16.44127388535032</v>
+        <v>146.69875</v>
       </c>
       <c r="E145" t="n">
-        <v>2.250025316455697</v>
+        <v>66.01286111111112</v>
       </c>
       <c r="F145" t="n">
-        <v>2.724303797468354</v>
+        <v>53.32608333333332</v>
       </c>
       <c r="G145" t="n">
-        <v>7.681417721518987</v>
+        <v>26.73555555555556</v>
       </c>
       <c r="H145" t="n">
-        <v>69.41164556962026</v>
+        <v>915.5351388888888</v>
       </c>
       <c r="I145" t="n">
-        <v>136</v>
+        <v>454</v>
       </c>
       <c r="J145" t="n">
         <v>2342.256214149139</v>
@@ -5965,34 +5965,34 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Dairy and alternatives</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>133.1275</v>
+        <v>5.533333333333335</v>
       </c>
       <c r="E146" t="n">
-        <v>59.90594444444445</v>
+        <v>2.646666666666667</v>
       </c>
       <c r="F146" t="n">
-        <v>48.39283333333332</v>
+        <v>2.512</v>
       </c>
       <c r="G146" t="n">
-        <v>24.26222222222222</v>
+        <v>0.3853333333333334</v>
       </c>
       <c r="H146" t="n">
-        <v>830.8380555555555</v>
+        <v>35.41333333333334</v>
       </c>
       <c r="I146" t="n">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="J146" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="147">
@@ -6003,34 +6003,34 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Fats and oils</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4.426666666666668</v>
+        <v>24.79253731343283</v>
       </c>
       <c r="E147" t="n">
-        <v>2.117333333333333</v>
+        <v>23.69808823529412</v>
       </c>
       <c r="F147" t="n">
-        <v>2.0096</v>
+        <v>0.42875</v>
       </c>
       <c r="G147" t="n">
-        <v>0.3082666666666667</v>
+        <v>0.7864705882352944</v>
       </c>
       <c r="H147" t="n">
-        <v>28.33066666666667</v>
+        <v>218.2507352941176</v>
       </c>
       <c r="I147" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J147" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="148">
@@ -6041,34 +6041,34 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Fats and oils</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>19.83402985074627</v>
+        <v>25.780625</v>
       </c>
       <c r="E148" t="n">
-        <v>18.95847058823529</v>
+        <v>6.956488986784141</v>
       </c>
       <c r="F148" t="n">
-        <v>0.343</v>
+        <v>14.22325991189427</v>
       </c>
       <c r="G148" t="n">
-        <v>0.6291764705882354</v>
+        <v>4.123462555066079</v>
       </c>
       <c r="H148" t="n">
-        <v>174.6005882352941</v>
+        <v>136.5922026431718</v>
       </c>
       <c r="I148" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="J148" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="149">
@@ -6079,34 +6079,34 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Fruits and nuts</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>23.7975</v>
+        <v>85.03248618784529</v>
       </c>
       <c r="E149" t="n">
-        <v>6.421374449339208</v>
+        <v>21.65892817679558</v>
       </c>
       <c r="F149" t="n">
-        <v>13.12916299559471</v>
+        <v>9.874740331491713</v>
       </c>
       <c r="G149" t="n">
-        <v>3.806273127753304</v>
+        <v>42.55171270718233</v>
       </c>
       <c r="H149" t="n">
-        <v>126.0851101321586</v>
+        <v>426.1674033149172</v>
       </c>
       <c r="I149" t="n">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="J149" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="150">
@@ -6117,34 +6117,34 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Fruits and nuts</t>
+          <t>Grains and cereals</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>82.25104972375689</v>
+        <v>179.2256443298969</v>
       </c>
       <c r="E150" t="n">
-        <v>20.95045856353591</v>
+        <v>22.96520618556701</v>
       </c>
       <c r="F150" t="n">
-        <v>9.551734806629835</v>
+        <v>19.81864948453608</v>
       </c>
       <c r="G150" t="n">
-        <v>41.15983425414365</v>
+        <v>124.1330850515464</v>
       </c>
       <c r="H150" t="n">
-        <v>412.2273480662984</v>
+        <v>807.3207989690723</v>
       </c>
       <c r="I150" t="n">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="J150" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="151">
@@ -6155,34 +6155,34 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Grains and cereals</t>
+          <t>Legumes</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>169.2289948453608</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>21.68427835051547</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>18.71322680412371</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>117.2093273195876</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>762.2909536082475</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="152">
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Legumes</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="153">
@@ -6231,12 +6231,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="154">
@@ -6269,34 +6269,34 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Red meat</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>38.39117346938777</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>14.19764285714285</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>20.41783163265306</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>3.365785714285713</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>223.8322448979592</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J154" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="155">
@@ -6307,34 +6307,34 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Red meat</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>32.61551020408164</v>
+        <v>48.42823529411764</v>
       </c>
       <c r="E155" t="n">
-        <v>12.06171428571428</v>
+        <v>9.511999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>17.3461224489796</v>
+        <v>3.810588235294118</v>
       </c>
       <c r="G155" t="n">
-        <v>2.859428571428571</v>
+        <v>30.72588235294118</v>
       </c>
       <c r="H155" t="n">
-        <v>190.1583673469387</v>
+        <v>230.275294117647</v>
       </c>
       <c r="I155" t="n">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="J155" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="156">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6354,25 +6354,25 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>16.1741935483871</v>
+        <v>20.39354838709678</v>
       </c>
       <c r="E156" t="n">
-        <v>4.524322580645161</v>
+        <v>5.70458064516129</v>
       </c>
       <c r="F156" t="n">
-        <v>1.615935483870968</v>
+        <v>2.037483870967742</v>
       </c>
       <c r="G156" t="n">
-        <v>9.283096774193547</v>
+        <v>11.70477419354839</v>
       </c>
       <c r="H156" t="n">
-        <v>85.91612903225807</v>
+        <v>108.3290322580645</v>
       </c>
       <c r="I156" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J156" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="157">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6392,25 +6392,25 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>15.23235668789809</v>
+        <v>16.44127388535032</v>
       </c>
       <c r="E157" t="n">
-        <v>2.084582278481014</v>
+        <v>2.250025316455697</v>
       </c>
       <c r="F157" t="n">
-        <v>2.523987341772151</v>
+        <v>2.724303797468354</v>
       </c>
       <c r="G157" t="n">
-        <v>7.116607594936709</v>
+        <v>7.681417721518987</v>
       </c>
       <c r="H157" t="n">
-        <v>64.30784810126583</v>
+        <v>69.41164556962026</v>
       </c>
       <c r="I157" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J157" t="n">
-        <v>2079.349904397705</v>
+        <v>2342.256214149139</v>
       </c>
     </row>
     <row r="158">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6430,25 +6430,25 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>155.74625</v>
+        <v>133.1275</v>
       </c>
       <c r="E158" t="n">
-        <v>70.0841388888889</v>
+        <v>59.90594444444445</v>
       </c>
       <c r="F158" t="n">
-        <v>56.61491666666665</v>
+        <v>48.39283333333332</v>
       </c>
       <c r="G158" t="n">
-        <v>28.38444444444445</v>
+        <v>24.26222222222222</v>
       </c>
       <c r="H158" t="n">
-        <v>971.9998611111109</v>
+        <v>830.8380555555555</v>
       </c>
       <c r="I158" t="n">
-        <v>482</v>
+        <v>412</v>
       </c>
       <c r="J158" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="159">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6468,25 +6468,25 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4.703333333333334</v>
+        <v>4.426666666666668</v>
       </c>
       <c r="E159" t="n">
-        <v>2.249666666666666</v>
+        <v>2.117333333333333</v>
       </c>
       <c r="F159" t="n">
-        <v>2.1352</v>
+        <v>2.0096</v>
       </c>
       <c r="G159" t="n">
-        <v>0.3275333333333334</v>
+        <v>0.3082666666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>30.10133333333334</v>
+        <v>28.33066666666667</v>
       </c>
       <c r="I159" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J159" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="160">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6506,25 +6506,25 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>21.25074626865672</v>
+        <v>19.83402985074627</v>
       </c>
       <c r="E160" t="n">
-        <v>20.31264705882353</v>
+        <v>18.95847058823529</v>
       </c>
       <c r="F160" t="n">
-        <v>0.3675</v>
+        <v>0.343</v>
       </c>
       <c r="G160" t="n">
-        <v>0.6741176470588236</v>
+        <v>0.6291764705882354</v>
       </c>
       <c r="H160" t="n">
-        <v>187.0720588235294</v>
+        <v>174.6005882352941</v>
       </c>
       <c r="I160" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J160" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="161">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6544,25 +6544,25 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>26.06392857142857</v>
+        <v>23.7975</v>
       </c>
       <c r="E161" t="n">
-        <v>7.032933920704846</v>
+        <v>6.421374449339208</v>
       </c>
       <c r="F161" t="n">
-        <v>14.37955947136563</v>
+        <v>13.12916299559471</v>
       </c>
       <c r="G161" t="n">
-        <v>4.168775330396476</v>
+        <v>3.806273127753304</v>
       </c>
       <c r="H161" t="n">
-        <v>138.0932158590308</v>
+        <v>126.0851101321586</v>
       </c>
       <c r="I161" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J161" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="162">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6582,25 +6582,25 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>86.62187845303868</v>
+        <v>82.25104972375689</v>
       </c>
       <c r="E162" t="n">
-        <v>22.0637679558011</v>
+        <v>20.95045856353591</v>
       </c>
       <c r="F162" t="n">
-        <v>10.05931491712707</v>
+        <v>9.551734806629835</v>
       </c>
       <c r="G162" t="n">
-        <v>43.34707182320443</v>
+        <v>41.15983425414365</v>
       </c>
       <c r="H162" t="n">
-        <v>434.1331491712708</v>
+        <v>412.2273480662984</v>
       </c>
       <c r="I162" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J162" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="163">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6620,25 +6620,25 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>151.3778350515464</v>
+        <v>169.2289948453608</v>
       </c>
       <c r="E163" t="n">
-        <v>19.39690721649485</v>
+        <v>21.68427835051547</v>
       </c>
       <c r="F163" t="n">
-        <v>16.73925773195876</v>
+        <v>18.71322680412371</v>
       </c>
       <c r="G163" t="n">
-        <v>104.8454742268041</v>
+        <v>117.2093273195876</v>
       </c>
       <c r="H163" t="n">
-        <v>681.8805154639175</v>
+        <v>762.2909536082475</v>
       </c>
       <c r="I163" t="n">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J163" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="164">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="165">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="166">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="167">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6790,7 +6790,7 @@
         <v>96</v>
       </c>
       <c r="J167" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="168">
@@ -6801,34 +6801,34 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sweets and snacks</t>
+          <t>Starchy vegetables</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>20.74516129032258</v>
+        <v>52.56235294117647</v>
       </c>
       <c r="E168" t="n">
-        <v>5.802935483870967</v>
+        <v>10.324</v>
       </c>
       <c r="F168" t="n">
-        <v>2.072612903225806</v>
+        <v>4.135882352941177</v>
       </c>
       <c r="G168" t="n">
-        <v>11.90658064516129</v>
+        <v>33.34882352941177</v>
       </c>
       <c r="H168" t="n">
-        <v>110.1967741935484</v>
+        <v>249.9329411764705</v>
       </c>
       <c r="I168" t="n">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="J168" t="n">
-        <v>2127.151051625239</v>
+        <v>2079.349904397705</v>
       </c>
     </row>
     <row r="169">
@@ -6839,33 +6839,565 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Sweets and snacks</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>16.1741935483871</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.524322580645161</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.615935483870968</v>
+      </c>
+      <c r="G169" t="n">
+        <v>9.283096774193547</v>
+      </c>
+      <c r="H169" t="n">
+        <v>85.91612903225807</v>
+      </c>
+      <c r="I169" t="n">
+        <v>46</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2079.349904397705</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Vegetables</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>15.23235668789809</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.084582278481014</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.523987341772151</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7.116607594936709</v>
+      </c>
+      <c r="H170" t="n">
+        <v>64.30784810126583</v>
+      </c>
+      <c r="I170" t="n">
+        <v>126</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2079.349904397705</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>70-79</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Dairy and alternatives</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>155.74625</v>
+      </c>
+      <c r="E171" t="n">
+        <v>70.0841388888889</v>
+      </c>
+      <c r="F171" t="n">
+        <v>56.61491666666665</v>
+      </c>
+      <c r="G171" t="n">
+        <v>28.38444444444445</v>
+      </c>
+      <c r="H171" t="n">
+        <v>971.9998611111109</v>
+      </c>
+      <c r="I171" t="n">
+        <v>482</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>4.703333333333334</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.249666666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.1352</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.3275333333333334</v>
+      </c>
+      <c r="H172" t="n">
+        <v>30.10133333333334</v>
+      </c>
+      <c r="I172" t="n">
+        <v>17</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Fats and oils</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>21.25074626865672</v>
+      </c>
+      <c r="E173" t="n">
+        <v>20.31264705882353</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.6741176470588236</v>
+      </c>
+      <c r="H173" t="n">
+        <v>187.0720588235294</v>
+      </c>
+      <c r="I173" t="n">
+        <v>30</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>26.06392857142857</v>
+      </c>
+      <c r="E174" t="n">
+        <v>7.032933920704846</v>
+      </c>
+      <c r="F174" t="n">
+        <v>14.37955947136563</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4.168775330396476</v>
+      </c>
+      <c r="H174" t="n">
+        <v>138.0932158590308</v>
+      </c>
+      <c r="I174" t="n">
+        <v>92</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Fruits and nuts</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>86.62187845303868</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22.0637679558011</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10.05931491712707</v>
+      </c>
+      <c r="G175" t="n">
+        <v>43.34707182320443</v>
+      </c>
+      <c r="H175" t="n">
+        <v>434.1331491712708</v>
+      </c>
+      <c r="I175" t="n">
+        <v>218</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Grains and cereals</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>151.3778350515464</v>
+      </c>
+      <c r="E176" t="n">
+        <v>19.39690721649485</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16.73925773195876</v>
+      </c>
+      <c r="G176" t="n">
+        <v>104.8454742268041</v>
+      </c>
+      <c r="H176" t="n">
+        <v>681.8805154639175</v>
+      </c>
+      <c r="I176" t="n">
+        <v>212</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Legumes</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Poultry</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Red meat</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>32.61551020408164</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.06171428571428</v>
+      </c>
+      <c r="F180" t="n">
+        <v>17.3461224489796</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2.859428571428571</v>
+      </c>
+      <c r="H180" t="n">
+        <v>190.1583673469387</v>
+      </c>
+      <c r="I180" t="n">
+        <v>96</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Starchy vegetables</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>47.24705882352941</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3.71764705882353</v>
+      </c>
+      <c r="G181" t="n">
+        <v>29.9764705882353</v>
+      </c>
+      <c r="H181" t="n">
+        <v>224.6588235294117</v>
+      </c>
+      <c r="I181" t="n">
+        <v>160</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sweets and snacks</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20.74516129032258</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.802935483870967</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2.072612903225806</v>
+      </c>
+      <c r="G182" t="n">
+        <v>11.90658064516129</v>
+      </c>
+      <c r="H182" t="n">
+        <v>110.1967741935484</v>
+      </c>
+      <c r="I182" t="n">
+        <v>59</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2127.151051625239</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t>Vegetables</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D183" t="n">
         <v>18.49643312101911</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E183" t="n">
         <v>2.531278481012659</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F183" t="n">
         <v>3.064841772151898</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G183" t="n">
         <v>8.641594936708861</v>
       </c>
-      <c r="H169" t="n">
+      <c r="H183" t="n">
         <v>78.0881012658228</v>
       </c>
-      <c r="I169" t="n">
+      <c r="I183" t="n">
         <v>153</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J183" t="n">
         <v>2127.151051625239</v>
       </c>
     </row>
